--- a/projects/rokig/input/SimulatorScenarios.xlsx
+++ b/projects/rokig/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/rokig/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE292149-4806-0741-B201-0851D47A8F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B13C78-9766-F244-B146-A4CA5026CBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,37 +194,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -238,18 +212,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="57">
     <dxf>
       <font>
         <b val="0"/>
@@ -1234,6 +1204,590 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1248,6 +1802,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
@@ -1270,7 +1847,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:N27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:N27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
@@ -1554,7 +2131,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1562,98 +2139,106 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="15">
         <v>9010101</v>
       </c>
-      <c r="E2" s="18">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12">
-        <v>2</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1662,7 +2247,7 @@
   <dimension ref="A1:N402"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19379,7 +19964,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19415,7 +20000,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -19459,7 +20044,7 @@
       <c r="F2" s="12">
         <v>3000</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <v>1</v>
       </c>
       <c r="H2" s="12">
@@ -19503,7 +20088,7 @@
       <c r="F3" s="12">
         <v>3000</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>1</v>
       </c>
       <c r="H3" s="12">
@@ -19547,7 +20132,7 @@
       <c r="F4" s="12">
         <v>3000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
       <c r="H4" s="12">
@@ -19591,7 +20176,7 @@
       <c r="F5" s="12">
         <v>3000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>1</v>
       </c>
       <c r="H5" s="12">
@@ -19635,7 +20220,7 @@
       <c r="F6" s="12">
         <v>3000</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="12">
@@ -19679,7 +20264,7 @@
       <c r="F7" s="12">
         <v>3000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="12">
@@ -19723,7 +20308,7 @@
       <c r="F8" s="12">
         <v>3000</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="12">
@@ -19767,7 +20352,7 @@
       <c r="F9" s="12">
         <v>3000</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
       <c r="H9" s="12">
@@ -19811,7 +20396,7 @@
       <c r="F10" s="12">
         <v>3000</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
       <c r="H10" s="12">
@@ -19855,7 +20440,7 @@
       <c r="F11" s="12">
         <v>3000</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
       <c r="H11" s="12">
@@ -19899,7 +20484,7 @@
       <c r="F12" s="12">
         <v>3000</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="14">
         <v>1</v>
       </c>
       <c r="H12" s="12">
@@ -19943,7 +20528,7 @@
       <c r="F13" s="12">
         <v>3000</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="14">
         <v>1</v>
       </c>
       <c r="H13" s="12">
@@ -19987,7 +20572,7 @@
       <c r="F14" s="12">
         <v>3000</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="14">
         <v>1</v>
       </c>
       <c r="H14" s="12">
@@ -20031,7 +20616,7 @@
       <c r="F15" s="12">
         <v>3000</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="14">
         <v>1</v>
       </c>
       <c r="H15" s="12">
@@ -20075,7 +20660,7 @@
       <c r="F16" s="12">
         <v>3000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="14">
         <v>1</v>
       </c>
       <c r="H16" s="12">
@@ -20119,7 +20704,7 @@
       <c r="F17" s="12">
         <v>3000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="14">
         <v>1</v>
       </c>
       <c r="H17" s="12">
@@ -20163,7 +20748,7 @@
       <c r="F18" s="12">
         <v>3000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
       <c r="H18" s="12">
@@ -20207,7 +20792,7 @@
       <c r="F19" s="12">
         <v>3000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="14">
         <v>1</v>
       </c>
       <c r="H19" s="12">
@@ -20251,7 +20836,7 @@
       <c r="F20" s="12">
         <v>3000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="14">
         <v>1</v>
       </c>
       <c r="H20" s="12">
@@ -20295,7 +20880,7 @@
       <c r="F21" s="12">
         <v>3000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="14">
         <v>1</v>
       </c>
       <c r="H21" s="12">
@@ -20339,7 +20924,7 @@
       <c r="F22" s="12">
         <v>3000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="14">
         <v>1</v>
       </c>
       <c r="H22" s="12">
@@ -20383,7 +20968,7 @@
       <c r="F23" s="12">
         <v>3000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="14">
         <v>1</v>
       </c>
       <c r="H23" s="12">
@@ -20427,7 +21012,7 @@
       <c r="F24" s="12">
         <v>3000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="14">
         <v>1</v>
       </c>
       <c r="H24" s="12">
@@ -20471,7 +21056,7 @@
       <c r="F25" s="12">
         <v>3000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="14">
         <v>1</v>
       </c>
       <c r="H25" s="12">
@@ -20515,7 +21100,7 @@
       <c r="F26" s="12">
         <v>3000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="14">
         <v>1</v>
       </c>
       <c r="H26" s="12">
@@ -20559,7 +21144,7 @@
       <c r="F27" s="12">
         <v>3000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="14">
         <v>1</v>
       </c>
       <c r="H27" s="12">

--- a/projects/rokig/input/SimulatorScenarios.xlsx
+++ b/projects/rokig/input/SimulatorScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/rokig/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B13C78-9766-F244-B146-A4CA5026CBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B6118-4745-1D4A-9A91-0EBB1291B204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,450 +774,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1788,6 +1344,450 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1802,46 +1802,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2247,7 +2247,7 @@
   <dimension ref="A1:N402"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:N5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/rokig/input/SimulatorScenarios.xlsx
+++ b/projects/rokig/input/SimulatorScenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/rokig/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E7B0A8-243F-1143-9AF3-DC53555ACC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CCB600-4E81-B942-B4A9-3E261537431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nuts3" sheetId="3" r:id="rId1"/>
-    <sheet name="test" sheetId="5" r:id="rId2"/>
+    <sheet name="test" sheetId="5" r:id="rId1"/>
+    <sheet name="nuts3" sheetId="3" r:id="rId2"/>
     <sheet name="test-Hessen" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -774,450 +774,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1788,6 +1344,450 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1802,46 +1802,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
-  <autoFilter ref="A1:N2" xr:uid="{76E9500B-9B93-104C-98A9-49589EC2A5F4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N402" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:N402" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{55B9D266-51A1-5648-9453-AE47B770ACA3}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{76BFBC5C-AE5B-7546-84E4-D9B200D94307}" name="start_year" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{CFA7AB78-772F-2940-9461-0BA39A8B4295}" name="end_year" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{79EB89AA-F372-4D4A-BA4C-4C2F58B0E3A9}" name="id_region" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{A91B9FF3-49EA-F846-8C35-E56226A77A6F}" name="building_num_min" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{5CE5C7B2-174A-4447-B823-29509EEADD4D}" name="building_num_max" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{F698D0BE-46CA-B347-940E-4E5A1010DA13}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{3D12CB80-1135-CE42-AD78-714ACC7800FB}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{47BCF808-DD96-674F-B684-B42E7BAF7F8A}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{1CCF13BE-FA67-EF41-A706-FC81390233B3}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{18EC444E-E888-2F4D-B5EB-C5DE7A9B6059}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{0529EEC8-A084-2F4B-88CE-72A6305BC58E}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{B26F8B9B-D337-E340-B141-AE6C84ED2DD5}" name="name" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{B20C29FC-29F4-D24E-8153-A74BA16620C6}" name="comment" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="start_year" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="end_year" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_region" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="building_num_min" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="building_num_max" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="optimal_heating_behavior_prob" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="id_scenario_energy_price_wholesale" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="id_scenario_energy_price_tax_rate" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_scenario_energy_price_mark_up" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="id_scenario_energy_price_co2_emission" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="id_scenario_energy_emission_factor" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="name" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="comment" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,10 +2127,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="15">
+        <v>9010101</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -19837,122 +19953,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="15">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="15">
-        <v>9010101</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
-      </c>
-      <c r="L2" s="15">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
